--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ALPHANOVA 0.15% OPHTH. SOL. 5 ML</t>
   </si>
   <si>
@@ -821,9 +833,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
@@ -962,7 +971,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:00 PM</t>
+    <t>Sunday, 24 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1785,7 +1794,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1811,11 +1820,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1877,7 +1886,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1939,18 +1948,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1959,31 +1968,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2009,11 +2018,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2042,11 +2051,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2082,7 +2091,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2115,7 +2124,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2148,7 +2157,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2164,7 +2173,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2174,11 +2183,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2190,7 +2199,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2207,11 +2216,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,11 +2381,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,14 +2447,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2586,7 +2595,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,7 +2628,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2632,18 +2641,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2652,28 +2661,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,11 +2711,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2742,7 +2751,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2758,7 +2767,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,11 +2810,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,11 +2843,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,11 +2876,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2883,31 +2892,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2916,20 +2925,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2940,7 +2949,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2973,7 +2982,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2989,7 +2998,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,11 +3074,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,11 +3107,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3114,7 +3123,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3171,7 +3180,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3187,7 +3196,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,7 +3288,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3312,7 +3321,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3411,28 +3420,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3444,31 +3453,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,11 +3701,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3708,31 +3717,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3741,28 +3750,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3833,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3880,7 +3889,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3930,7 +3939,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3946,7 +3955,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4038,7 +4047,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4128,7 +4137,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4144,7 +4153,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4260,7 +4269,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4276,7 +4285,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4359,7 +4368,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4450,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4480,18 +4489,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,28 +4509,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4533,28 +4542,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4566,20 +4575,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4606,24 +4615,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,7 +4641,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4645,18 +4654,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>293</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>165</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4672,24 +4681,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,28 +4707,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4731,28 +4740,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4764,28 +4773,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4797,28 +4806,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4830,7 +4839,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4843,18 +4852,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,31 +4872,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4903,24 +4912,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>311</v>
+        <v>152</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4936,13 +4945,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4969,59 +4978,92 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6209.4049999999997</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>317</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>318</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>319</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>16</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>57</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>287</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6243.4049999999997</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>320</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>321</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>322</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5545,10 +5587,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -323,6 +323,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -350,6 +362,15 @@
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -413,6 +434,12 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EKMASONID 9 MG 10 E.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
   </si>
   <si>
@@ -575,6 +602,15 @@
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LEYLAC GEL</t>
   </si>
   <si>
@@ -767,9 +803,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -971,7 +1004,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:03 PM</t>
+    <t>Sunday, 24 August, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2470,7 +2503,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2480,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2496,14 +2529,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2513,11 +2546,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2579,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2595,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,11 +2645,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2628,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2661,7 +2694,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2674,15 +2707,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2694,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2711,14 +2744,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2727,28 +2760,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2777,14 +2810,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,7 +2833,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2833,7 +2866,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2859,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2876,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2892,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,14 +2942,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2932,13 +2965,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2949,7 +2982,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2965,7 +2998,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2991,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3041,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,31 +3057,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3057,14 +3090,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,14 +3107,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3090,14 +3123,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3111,10 +3144,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3156,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3173,14 +3206,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3189,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3210,7 +3243,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3222,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3239,14 +3272,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3255,14 +3288,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3272,14 +3305,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3288,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3321,7 +3354,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3338,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3354,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,11 +3404,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3387,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3420,7 +3453,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3437,11 +3470,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3453,28 +3486,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3486,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3536,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3552,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3585,31 +3618,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,7 +3651,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3635,11 +3668,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3651,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,14 +3767,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3750,31 +3783,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,14 +3833,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,7 +3849,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3833,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3849,7 +3882,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3866,11 +3899,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3882,31 +3915,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,11 +3965,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3948,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3981,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3998,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4014,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4047,7 +4080,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4064,7 +4097,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4087,7 +4120,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4146,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4186,7 +4219,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4219,7 +4252,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4252,7 +4285,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4269,7 +4302,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4351,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4493,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4476,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,31 +4542,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4542,31 +4575,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,20 +4608,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4599,7 +4632,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4615,24 +4648,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4648,7 +4681,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>293</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4681,7 +4714,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4707,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4740,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4780,7 +4813,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>304</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4813,7 +4846,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,11 +4889,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4872,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +4988,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4971,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>317</v>
+        <v>144</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5011,7 +5044,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,49 +5054,181 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6243.4049999999997</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>320</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>321</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>322</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>57</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>161</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>324</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>260</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>57</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>325</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>327</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>242</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>57</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>328</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>330</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>16</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>57</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>298</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6507.7550000000001</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>331</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>332</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>333</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5592,10 +5757,30 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:07 PM</t>
+    <t>Sunday, 24 August, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:15 PM</t>
+    <t>Sunday, 24 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>60.0600</t>
   </si>
   <si>
+    <t>DAKTARIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -491,13 +500,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:6</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>FERRODUONAL 30 CAP</t>
@@ -764,6 +776,15 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -794,12 +815,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -887,6 +902,15 @@
     <t>100.00</t>
   </si>
   <si>
+    <t xml:space="preserve">بالمرز انبوبه </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -953,12 +977,24 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>قطن ازن كبير</t>
   </si>
   <si>
@@ -968,6 +1004,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t xml:space="preserve">ماء اكسجين 10 </t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -992,19 +1037,22 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>معجون اسنان ديبرودنت 13 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:25 PM</t>
+    <t>Sunday, 24 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2751,7 +2799,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2773,7 +2821,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2784,7 +2832,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2800,21 +2848,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2826,14 +2874,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,11 +2891,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2866,7 +2914,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,14 +2924,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,14 +2940,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2916,7 +2964,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2932,7 +2980,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,14 +2990,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2958,14 +3006,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,14 +3023,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2998,7 +3046,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3031,7 +3079,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3064,13 +3112,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3081,7 +3129,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3097,24 +3145,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,11 +3188,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>59</v>
@@ -3156,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3180,7 +3228,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3189,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3206,14 +3254,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3222,14 +3270,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,11 +3287,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3255,14 +3303,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,11 +3320,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3288,7 +3336,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3305,14 +3353,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3321,14 +3369,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3345,7 +3393,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3361,7 +3409,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,14 +3419,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,14 +3435,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,14 +3452,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3468,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,7 +3501,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3470,14 +3518,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,7 +3534,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3503,11 +3551,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3519,14 +3567,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3552,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,14 +3617,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,14 +3633,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,11 +3650,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3618,28 +3666,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3651,31 +3699,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,14 +3732,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3749,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,11 +3782,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3750,14 +3798,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,14 +3831,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,14 +3848,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,14 +3864,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3849,14 +3897,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3882,14 +3930,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,11 +3947,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3915,31 +3963,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,28 +3996,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3981,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4046,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,14 +4062,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,11 +4079,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4047,14 +4095,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4087,7 +4135,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4137,7 +4185,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4153,7 +4201,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,11 +4211,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4179,14 +4227,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,11 +4277,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4245,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,11 +4310,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4278,7 +4326,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4295,14 +4343,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,14 +4359,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4351,7 +4399,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4409,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,11 +4442,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4410,7 +4458,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4427,11 +4475,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4443,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,11 +4508,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4476,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4541,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4557,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4574,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>281</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4632,7 +4680,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4648,7 +4696,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,31 +4722,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4720,18 +4768,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4780,7 +4828,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4806,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4871,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>304</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4863,7 +4911,7 @@
         <v>307</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,7 +4927,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,11 +4937,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4905,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>315</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4988,11 +5036,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5011,7 +5059,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,11 +5069,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>144</v>
+        <v>320</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5037,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,14 +5118,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5135,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,7 +5168,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5136,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5201,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5176,7 +5224,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,49 +5234,280 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6507.7550000000001</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>331</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>29</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>57</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
         <v>332</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>333</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>334</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>12</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>57</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>306</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>336</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>337</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>57</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>164</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>339</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>267</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>57</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>340</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>342</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>29</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>57</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>343</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>345</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>246</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>57</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>323</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>346</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>16</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>57</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>306</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6790.5950000000003</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>347</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>348</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>349</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5777,10 +6056,45 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1052,7 +1052,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:30 PM</t>
+    <t>Sunday, 24 August, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -656,6 +656,9 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -935,15 +938,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>ريكسونه رجالى</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1049,10 +1055,13 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:31 PM</t>
+    <t>Sunday, 24 August, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3838,7 +3847,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3871,7 +3880,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3980,11 +3989,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3996,31 +4005,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,28 +4038,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,11 +4121,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,11 +4352,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4359,7 +4368,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4392,7 +4401,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4498,7 +4507,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,14 +4583,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,11 +4715,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4788,31 +4797,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>299</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,11 +4847,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4854,14 +4863,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4875,7 +4884,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4913,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,11 +4946,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5045,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5052,14 +5061,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5078,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,7 +5177,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5184,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,11 +5210,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,11 +5243,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,11 +5276,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5283,7 +5292,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5300,14 +5309,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,14 +5325,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,14 +5342,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,14 +5375,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,14 +5408,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>343</v>
+        <v>164</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,14 +5424,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,11 +5441,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5448,14 +5457,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,49 +5474,148 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>347</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>247</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>57</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>325</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>348</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>247</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>57</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>241</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>349</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>16</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>57</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
         <v>307</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6790.5950000000003</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>347</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>348</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>349</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6881.5950000000003</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>350</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>351</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>352</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6091,10 +6199,25 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -278,6 +278,9 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
     <t>CIPROCIN 500MG 10 F.C.TAB.</t>
   </si>
   <si>
@@ -554,6 +557,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -686,6 +698,9 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -1061,7 +1076,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:35 PM</t>
+    <t>Sunday, 24 August, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2395,7 +2410,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2405,14 +2420,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2438,11 +2453,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2471,14 +2486,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2504,11 +2519,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2537,14 +2552,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2636,11 +2651,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2725,7 +2740,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2750,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2784,7 +2799,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2817,7 +2832,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2850,7 +2865,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2863,18 +2878,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,28 +2898,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,11 +2948,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2999,14 +3014,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3065,14 +3080,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,11 +3113,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3114,14 +3129,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,11 +3146,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3147,31 +3162,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3180,31 +3195,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,11 +3344,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,11 +3377,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3378,7 +3393,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3428,14 +3443,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3461,14 +3476,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3550,7 +3565,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3560,11 +3575,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3576,7 +3591,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3593,14 +3608,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,7 +3657,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3659,11 +3674,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3682,7 +3697,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3715,21 +3730,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3774,28 +3789,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3824,14 +3839,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3857,11 +3872,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3880,7 +3895,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3890,14 +3905,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3923,14 +3938,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3946,7 +3961,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3956,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4038,31 +4053,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4088,14 +4103,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,11 +4136,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4137,31 +4152,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,14 +4202,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4203,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4220,14 +4235,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4236,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4253,11 +4268,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4269,14 +4284,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4286,11 +4301,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4302,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,11 +4334,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4335,14 +4350,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,14 +4367,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,14 +4400,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,11 +4433,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,14 +4466,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4467,14 +4482,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,11 +4499,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4500,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,14 +4532,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4533,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,14 +4565,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4566,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,14 +4598,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4599,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4632,14 +4647,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4649,14 +4664,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4665,7 +4680,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4682,14 +4697,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4698,14 +4713,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4731,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4764,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4797,14 +4812,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,31 +4845,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4863,31 +4878,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4896,31 +4911,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4944,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,11 +4961,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4962,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>182</v>
+        <v>307</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,11 +4994,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4995,14 +5010,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,11 +5027,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5028,14 +5043,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,14 +5060,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>314</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5061,14 +5076,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,14 +5093,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,14 +5109,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,11 +5126,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5127,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5159,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5160,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,14 +5192,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5193,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,11 +5225,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5226,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,7 +5258,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5259,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,11 +5291,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5299,7 +5314,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,11 +5324,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5325,14 +5340,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,11 +5357,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5358,14 +5373,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5375,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>307</v>
+        <v>148</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5391,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,14 +5439,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,11 +5456,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5457,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,11 +5489,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>33</v>
@@ -5490,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5507,14 +5522,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5540,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>241</v>
+        <v>347</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5563,7 +5578,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5573,49 +5588,148 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6881.5950000000003</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>350</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>351</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>352</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>252</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>57</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>330</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>353</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>252</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>57</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>246</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>354</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>16</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>57</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>312</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7024.5950000000003</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>355</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>356</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>357</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6214,10 +6328,25 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1076,7 +1076,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:36 PM</t>
+    <t>Sunday, 24 August, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -953,6 +953,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -1028,12 +1040,6 @@
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -1076,7 +1082,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:37 PM</t>
+    <t>Sunday, 24 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5083,7 +5089,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,11 +5099,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5109,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,11 +5132,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5142,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,14 +5165,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>319</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5175,7 +5181,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5192,14 +5198,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>186</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5208,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5241,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,11 +5264,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>327</v>
+        <v>148</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5281,7 +5287,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,11 +5297,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5307,14 +5313,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,11 +5330,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5340,14 +5346,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5361,7 +5367,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5373,14 +5379,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>336</v>
+        <v>69</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5390,11 +5396,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5406,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5439,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,11 +5462,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>339</v>
+        <v>148</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5472,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,14 +5495,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5512,7 +5518,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,14 +5528,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5538,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,14 +5577,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,14 +5594,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5604,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,14 +5627,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5637,7 +5643,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5654,11 +5660,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5670,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,49 +5693,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>356</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>16</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>57</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>312</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>313</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7024.5950000000003</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>355</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>356</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7034.5950000000003</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>357</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>358</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>359</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6343,10 +6382,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:38 PM</t>
+    <t>Sunday, 24 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 9:46 PM</t>
+    <t>Sunday, 24 August, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:00 PM</t>
+    <t>Sunday, 24 August, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -362,6 +362,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -605,7 +617,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>92.0000</t>
+    <t>184.0000</t>
   </si>
   <si>
     <t>ITRANOX 100MG 5 CAPS.</t>
@@ -887,13 +899,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8369:0</t>
+    <t>8367:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -1061,9 +1073,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
@@ -1082,7 +1091,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:07 PM</t>
+    <t>Sunday, 24 August, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2746,7 +2755,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2838,7 +2847,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2871,7 +2880,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2904,7 +2913,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2917,18 +2926,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2937,28 +2946,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2987,11 +2996,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3027,7 +3036,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3043,7 +3052,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3102,14 +3111,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3201,31 +3210,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3234,20 +3243,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3258,7 +3267,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3291,7 +3300,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3324,7 +3333,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3432,7 +3441,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3538,7 +3547,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3630,7 +3639,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3795,28 +3804,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3828,31 +3837,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3911,11 +3920,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3927,7 +3936,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3944,11 +3953,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4109,11 +4118,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,11 +4151,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4158,31 +4167,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4191,28 +4200,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4274,11 +4283,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4330,7 +4339,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4380,7 +4389,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4396,7 +4405,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4406,11 +4415,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4422,14 +4431,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,11 +4481,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4505,11 +4514,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4521,7 +4530,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4538,11 +4547,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4554,7 +4563,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4604,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4743,7 +4752,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4759,7 +4768,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4842,7 +4851,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4858,7 +4867,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4938,7 +4947,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4950,31 +4959,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5000,11 +5009,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5016,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,11 +5042,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5049,14 +5058,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5066,11 +5075,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>312</v>
+        <v>152</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5122,7 +5131,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,11 +5141,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5148,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5214,7 +5223,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5231,14 +5240,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>186</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,14 +5273,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5280,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5297,11 +5306,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>331</v>
+        <v>152</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5320,7 +5329,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5330,11 +5339,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5346,14 +5355,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5363,11 +5372,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5379,14 +5388,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,11 +5405,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5412,14 +5421,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>340</v>
+        <v>69</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,11 +5438,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5445,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5462,11 +5471,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5478,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,11 +5504,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,14 +5537,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,14 +5570,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5577,14 +5586,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,14 +5603,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5610,14 +5619,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5627,14 +5636,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5650,7 +5659,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,14 +5669,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5676,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,11 +5702,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5709,14 +5718,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,49 +5735,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7034.5950000000003</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>357</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>358</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>359</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>16</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>57</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>316</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7163.5950000000003</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>360</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>361</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>362</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6387,10 +6429,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -545,6 +545,12 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FLUCA EYE SUSP. DROP 5 ML</t>
   </si>
   <si>
@@ -566,9 +572,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FUSI 2% OINT. 30 GM</t>
   </si>
   <si>
@@ -686,6 +689,9 @@
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -1040,6 +1046,9 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
     <t>قطن ازن كبير</t>
   </si>
   <si>
@@ -1091,7 +1100,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:09 PM</t>
+    <t>Sunday, 24 August, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3415,7 +3424,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3448,7 +3457,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3462,7 +3471,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3474,7 +3483,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3540,14 +3549,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3656,14 +3665,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3689,14 +3698,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3738,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3821,11 +3830,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3837,28 +3846,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3870,31 +3879,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3953,11 +3962,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3969,7 +3978,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4009,7 +4018,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,11 +4127,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4184,11 +4193,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4200,31 +4209,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4233,7 +4242,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4266,31 +4275,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4299,7 +4308,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4349,11 +4358,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,11 +4424,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4490,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4497,7 +4506,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4547,11 +4556,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,11 +4589,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4596,7 +4605,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,11 +4655,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,11 +4721,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4728,7 +4737,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4745,11 +4754,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,11 +4787,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4959,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,7 +5001,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5005,18 +5014,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,31 +5034,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5058,14 +5067,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,11 +5084,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5108,11 +5117,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,11 +5150,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>320</v>
+        <v>152</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5157,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,11 +5183,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5190,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,11 +5216,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>327</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,11 +5381,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>338</v>
+        <v>152</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>29</v>
+        <v>336</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,11 +5414,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,7 +5447,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5454,14 +5463,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>344</v>
+        <v>29</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5471,11 +5480,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5487,14 +5496,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5504,11 +5513,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5520,7 +5529,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5537,11 +5546,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5553,14 +5562,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5570,14 +5579,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5586,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,14 +5612,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5619,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,11 +5645,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5652,14 +5661,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,11 +5678,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>33</v>
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>256</v>
+        <v>353</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,14 +5711,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5718,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,11 +5744,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5751,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5768,49 +5777,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7163.5950000000003</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>360</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>258</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>57</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>340</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>361</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>258</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>57</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>252</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>362</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>16</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>57</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>318</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7355.5950000000003</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>363</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>364</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>365</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6434,10 +6542,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -428,6 +437,15 @@
     <t>5:3</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -737,9 +755,6 @@
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>63.0000</t>
   </si>
   <si>
@@ -1100,7 +1115,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:13 PM</t>
+    <t>Sunday, 24 August, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,7 +2647,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2649,7 +2664,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2708,7 +2723,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2731,7 +2746,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2748,7 +2763,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2764,7 +2779,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2863,7 +2878,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2880,7 +2895,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2913,7 +2928,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2946,7 +2961,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2968,7 +2983,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2979,7 +2994,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2995,21 +3010,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3038,11 +3053,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3061,7 +3076,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3259,13 +3274,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3276,7 +3291,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3292,7 +3307,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3302,14 +3317,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3318,31 +3333,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>171</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3424,7 +3439,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3467,11 +3482,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3500,14 +3515,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3533,14 +3548,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3566,11 +3581,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3603,10 +3618,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3665,11 +3680,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3681,7 +3696,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3714,7 +3729,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3813,7 +3828,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3830,11 +3845,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3879,28 +3894,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3919,7 +3934,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3936,7 +3951,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3952,21 +3967,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +4010,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4028,11 +4043,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,11 +4109,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4183,7 +4198,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4193,11 +4208,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4259,11 +4274,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4275,31 +4290,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4308,7 +4323,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4325,14 +4340,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4341,31 +4356,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4391,14 +4406,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4424,11 +4439,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4473,14 +4488,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4490,11 +4505,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4506,14 +4521,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4538,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4539,14 +4554,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,14 +4571,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4572,7 +4587,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4589,14 +4604,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4605,14 +4620,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4622,7 +4637,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4645,7 +4660,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4688,14 +4703,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4704,14 +4719,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4721,11 +4736,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4744,7 +4759,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,14 +4769,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4770,14 +4785,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4787,11 +4802,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4803,7 +4818,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4820,11 +4835,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4836,14 +4851,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4853,11 +4868,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4869,14 +4884,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4886,14 +4901,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4902,14 +4917,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,14 +4934,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,14 +4950,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4967,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4968,14 +4983,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4985,14 +5000,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5001,14 +5016,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5025,7 +5040,7 @@
         <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5041,7 +5056,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5051,14 +5066,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>104</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5067,7 +5082,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5080,18 +5095,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5100,31 +5115,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5140,7 +5155,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,11 +5165,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>152</v>
+        <v>315</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5166,14 +5181,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5183,11 +5198,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5199,14 +5214,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,11 +5231,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5232,14 +5247,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,11 +5264,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5265,14 +5280,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5282,11 +5297,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5298,14 +5313,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5315,14 +5330,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>329</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5331,14 +5346,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,14 +5363,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5371,7 +5386,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5381,14 +5396,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5404,7 +5419,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5414,14 +5429,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5445,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>339</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,11 +5462,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5463,14 +5478,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,7 +5495,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5503,7 +5518,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5513,11 +5528,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5529,7 +5544,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5546,11 +5561,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5562,14 +5577,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>347</v>
+        <v>69</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,11 +5594,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5595,14 +5610,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5612,11 +5627,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5628,14 +5643,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,11 +5660,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5661,7 +5676,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5678,14 +5693,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5694,14 +5709,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>353</v>
+        <v>29</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,14 +5726,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5734,7 +5749,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,14 +5759,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5767,7 +5782,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,14 +5792,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>358</v>
+        <v>175</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>359</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5800,7 +5815,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,11 +5825,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5826,14 +5841,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,14 +5858,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5859,14 +5874,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,49 +5891,115 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7355.5950000000003</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>363</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>364</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>365</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>366</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>263</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>57</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>257</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>367</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>16</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>57</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>323</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7458.3850000000002</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>368</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>369</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>370</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6557,10 +6638,20 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1115,7 +1115,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:15 PM</t>
+    <t>Sunday, 24 August, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -167,955 +167,991 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>BILASTIGEC 20 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>BILASTOMED 20 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>CONISTOVA 2 MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DAKTARIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DEETRIO 30TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EKMASONID 9 MG 10 E.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>167.7600</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEYLAC GEL</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LORNOXICAM 8MG/2ML VIAL FOR I.M./I.V. INJ.</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MALINDA SKIN CLEANSER GEL 200ML</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE كرلي كريم</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>254.00</t>
+  </si>
+  <si>
+    <t>127.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>16:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>BILASTIGEC 20 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>BILASTOMED 20 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>33.1650</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 2 GM VIAL</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>CONISTOVA 2 MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DAKTARIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DEETRIO 30TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EKMASONID 9 MG 10 E.R.F.C.TABS.</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>167.7600</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>4:10</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:6</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>19.6800</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>184.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 5 CAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEYLAC GEL</t>
-  </si>
-  <si>
-    <t>329.00</t>
-  </si>
-  <si>
-    <t>329.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LORNOXICAM 8MG/2ML VIAL FOR I.M./I.V. INJ.</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>MALINDA SKIN CLEANSER GEL 200ML</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>METAPSIN 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE كرلي كريم</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>254.00</t>
-  </si>
-  <si>
-    <t>127.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>16:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>261.0000</t>
+  </si>
+  <si>
+    <t>TRI-B I.M. 3 DOUBLE AMP.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>29.0400</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>84.6600</t>
+  </si>
+  <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8367:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بالمرز انبوبه </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>85:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان خشب</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>قطن ازن كبير</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماء اكسجين 10 </t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>مرهم اكتيول اسود</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>معجون اسنان ديبرودنت 13 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>136.5000</t>
-  </si>
-  <si>
-    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>261.0000</t>
-  </si>
-  <si>
-    <t>TRI-B I.M. 3 DOUBLE AMP.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>29.0400</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>84.6600</t>
-  </si>
-  <si>
-    <t>VOTRIAXONE 1 GM I.M VIAL</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>224.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8367:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بالمرز انبوبه </t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>41:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>85:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>ريكسونا حريمي بليه</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>ريكسونه رجالى</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان خشب</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>قطن ازن كبير</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ماء اكسجين 10 </t>
-  </si>
-  <si>
-    <t>ماسك جلسات اطفال</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>مرهم اكتيول اسود</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>معجون اسنان ديبرودنت 13 مل</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معجون اسنان مسواك صغير </t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:16 PM</t>
+    <t>Sunday, 24 August, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2122,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2096,14 +2132,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2112,20 +2148,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2133,10 +2169,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2145,7 +2181,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2162,11 +2198,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -2178,14 +2214,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2211,7 +2247,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2228,11 +2264,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2261,11 +2297,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2277,14 +2313,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2294,14 +2330,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2310,14 +2346,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2327,11 +2363,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2343,7 +2379,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2360,11 +2396,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2376,20 +2412,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2416,7 +2452,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2433,7 +2469,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2449,7 +2485,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2459,14 +2495,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2475,14 +2511,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2515,7 +2551,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2548,7 +2584,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2565,7 +2601,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2581,7 +2617,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2614,7 +2650,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2631,7 +2667,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2647,7 +2683,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2664,7 +2700,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2680,7 +2716,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2697,7 +2733,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2756,7 +2792,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2779,7 +2815,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2796,7 +2832,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2812,7 +2848,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2838,14 +2874,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2888,14 +2924,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2911,7 +2947,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2928,7 +2964,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2961,7 +2997,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2994,7 +3030,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3016,7 +3052,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -3027,7 +3063,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3043,21 +3079,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3069,14 +3105,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3086,14 +3122,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3109,7 +3145,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3126,7 +3162,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3142,7 +3178,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3152,14 +3188,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3168,14 +3204,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3192,7 +3228,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3208,7 +3244,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3218,14 +3254,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3234,14 +3270,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3251,14 +3287,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3274,7 +3310,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3307,7 +3343,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3340,13 +3376,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3357,7 +3393,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3373,24 +3409,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3399,14 +3435,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3416,14 +3452,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3432,14 +3468,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3472,7 +3508,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3489,7 +3525,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3505,7 +3541,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3515,14 +3551,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3531,14 +3567,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3548,14 +3584,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3564,14 +3600,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3581,11 +3617,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3618,10 +3654,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3630,14 +3666,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3647,14 +3683,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3670,7 +3706,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3680,11 +3716,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3696,14 +3732,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3720,7 +3756,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3736,7 +3772,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3746,14 +3782,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3762,7 +3798,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3779,11 +3815,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3795,7 +3831,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3812,14 +3848,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3828,7 +3864,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3845,14 +3881,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3868,7 +3904,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3878,14 +3914,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3911,11 +3947,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3927,14 +3963,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,14 +3980,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3960,28 +3996,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3993,14 +4029,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4010,14 +4046,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4026,24 +4062,24 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4066,7 +4102,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4083,7 +4119,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4099,7 +4135,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4109,11 +4145,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4125,14 +4161,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4142,14 +4178,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,14 +4194,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4175,11 +4211,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4191,14 +4227,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,11 +4244,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4224,14 +4260,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4241,14 +4277,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4257,14 +4293,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4274,14 +4310,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4290,14 +4326,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4307,11 +4343,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4323,14 +4359,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4340,14 +4376,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4356,31 +4392,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4389,14 +4425,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4406,14 +4442,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4422,14 +4458,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4439,11 +4475,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4455,31 +4491,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4488,14 +4524,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4505,14 +4541,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4521,14 +4557,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4538,14 +4574,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4554,14 +4590,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4571,11 +4607,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4587,14 +4623,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4604,11 +4640,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4620,14 +4656,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4637,11 +4673,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4653,14 +4689,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4674,10 +4710,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4686,14 +4722,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,14 +4739,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4719,14 +4755,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4736,14 +4772,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4752,14 +4788,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4769,14 +4805,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4785,14 +4821,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4802,11 +4838,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4818,14 +4854,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4835,14 +4871,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4851,14 +4887,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4868,11 +4904,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4884,14 +4920,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4901,14 +4937,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4917,14 +4953,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4934,11 +4970,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4950,14 +4986,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4967,14 +5003,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4983,14 +5019,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5000,14 +5036,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5016,14 +5052,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5033,14 +5069,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5049,14 +5085,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5066,14 +5102,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5082,14 +5118,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5099,14 +5135,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5115,14 +5151,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>312</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5132,14 +5168,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5148,31 +5184,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5181,31 +5217,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5214,31 +5250,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5260,7 +5296,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5268,10 +5304,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5280,28 +5316,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>326</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5313,28 +5349,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>330</v>
+        <v>161</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5346,28 +5382,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>330</v>
+        <v>161</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5379,31 +5415,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5419,24 +5455,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5445,28 +5481,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5478,28 +5514,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5511,31 +5547,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5544,31 +5580,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
         <v>348</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5584,21 +5620,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5610,28 +5646,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5643,28 +5679,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5676,28 +5712,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5709,28 +5745,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5742,31 +5778,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5775,31 +5811,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5808,28 +5844,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5841,7 +5877,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5854,18 +5890,18 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5874,31 +5910,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5907,31 +5943,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>263</v>
+        <v>369</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5940,66 +5976,198 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7458.3850000000002</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>368</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>369</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>370</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>373</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>29</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>56</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>374</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>375</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>376</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>377</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>56</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>356</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>378</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>377</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>56</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>266</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>379</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>16</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>56</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>333</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7796.8050000000003</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>380</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>381</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>382</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6648,10 +6816,30 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1151,7 +1151,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:27 PM</t>
+    <t>Sunday, 24 August, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -1094,6 +1094,9 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
+    <t>قصافات اطفال</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -1151,7 +1154,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:31 PM</t>
+    <t>Sunday, 24 August, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5785,7 +5788,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5818,7 +5821,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5828,11 +5831,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5844,14 +5847,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5884,7 +5887,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5894,11 +5897,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>337</v>
+        <v>161</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5917,7 +5920,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5927,14 +5930,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5943,14 +5946,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5960,14 +5963,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5976,14 +5979,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5993,14 +5996,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>372</v>
+        <v>178</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6009,14 +6012,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6026,14 +6029,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6042,14 +6045,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6059,14 +6062,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6075,14 +6078,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6092,11 +6095,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6115,7 +6118,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6125,49 +6128,82 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>380</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>16</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>56</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>333</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
         <v>334</v>
       </c>
-      <c t="s" r="Q138" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>7796.8050000000003</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>380</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>7806.8050000000003</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
         <v>381</v>
       </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
         <v>382</v>
       </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>383</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6836,10 +6872,15 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -257,6 +257,18 @@
     <t>33.1650</t>
   </si>
   <si>
+    <t>BINO BABY CREAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>BIOLEGAM60/100 TAB</t>
   </si>
   <si>
@@ -329,12 +341,6 @@
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -1085,6 +1091,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -1145,16 +1154,13 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:32 PM</t>
+    <t>Sunday, 24 August, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2439,7 +2445,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2455,21 +2461,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2597,11 +2603,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2663,11 +2669,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2696,14 +2702,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2729,14 +2735,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2745,14 +2751,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2762,14 +2768,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2818,7 +2824,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2828,11 +2834,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3009,7 +3015,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3042,7 +3048,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3075,7 +3081,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3088,18 +3094,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3108,28 +3114,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -3148,7 +3154,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3313,7 +3319,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3405,31 +3411,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3438,31 +3444,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3610,7 +3616,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3643,7 +3649,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3657,7 +3663,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3669,7 +3675,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3709,7 +3715,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3723,10 +3729,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3752,11 +3758,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3818,7 +3824,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3841,7 +3847,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3917,14 +3923,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3973,7 +3979,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4049,11 +4055,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4065,28 +4071,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4098,31 +4104,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4131,14 +4137,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4171,7 +4177,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4181,11 +4187,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4197,7 +4203,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4214,11 +4220,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4263,14 +4269,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4336,7 +4342,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4412,14 +4418,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4435,7 +4441,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4478,11 +4484,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4494,31 +4500,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4534,17 +4540,17 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4567,7 +4573,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4577,14 +4583,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4610,11 +4616,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4643,11 +4649,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4775,11 +4781,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4791,14 +4797,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4808,14 +4814,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4824,14 +4830,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4841,11 +4847,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4874,7 +4880,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4907,11 +4913,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4923,7 +4929,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4973,14 +4979,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4996,7 +5002,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5006,14 +5012,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5039,14 +5045,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5062,7 +5068,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5076,10 +5082,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5088,14 +5094,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5105,14 +5111,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5121,14 +5127,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5138,14 +5144,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5154,14 +5160,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5171,14 +5177,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5187,14 +5193,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5204,11 +5210,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>68</v>
@@ -5220,14 +5226,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5237,14 +5243,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>317</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5260,7 +5266,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5270,14 +5276,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5286,14 +5292,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5303,11 +5309,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>107</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5319,20 +5325,20 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5340,10 +5346,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>326</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5352,14 +5358,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5369,11 +5375,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5402,11 +5408,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5435,11 +5441,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5451,14 +5457,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5468,11 +5474,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5484,14 +5490,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>200</v>
+        <v>338</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5501,11 +5507,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5517,14 +5523,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5534,11 +5540,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5550,14 +5556,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5567,14 +5573,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>345</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5583,7 +5589,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5600,14 +5606,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>200</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5616,14 +5622,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5633,14 +5639,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5666,11 +5672,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5682,14 +5688,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5699,11 +5705,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5715,14 +5721,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5732,7 +5738,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5755,7 +5761,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5765,11 +5771,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5788,7 +5794,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5798,11 +5804,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5814,14 +5820,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5831,11 +5837,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5847,14 +5853,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>364</v>
+        <v>68</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5864,11 +5870,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5887,7 +5893,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5897,11 +5903,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5920,7 +5926,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5930,11 +5936,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5946,7 +5952,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5963,14 +5969,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5986,7 +5992,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5996,14 +6002,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6012,14 +6018,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6029,14 +6035,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6045,14 +6051,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>29</v>
+        <v>373</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6062,14 +6068,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6078,14 +6084,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6095,11 +6101,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6111,14 +6117,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6128,14 +6134,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6151,7 +6157,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6161,49 +6167,115 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>7806.8050000000003</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
         <v>381</v>
       </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>83</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>56</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>268</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>362</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
         <v>382</v>
       </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>16</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>56</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>335</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7906.8050000000003</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
         <v>383</v>
       </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>384</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>385</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6877,10 +6949,20 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -671,10 +671,7 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>24.0000</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
@@ -842,9 +839,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -902,6 +896,12 @@
     <t>29.0400</t>
   </si>
   <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -1049,10 +1049,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1160,7 +1157,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:33 PM</t>
+    <t>Sunday, 24 August, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4026,10 +4023,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4038,7 +4035,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4071,7 +4068,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4088,11 +4085,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4104,7 +4101,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4121,11 +4118,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4137,7 +4134,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4154,11 +4151,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4170,7 +4167,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4191,7 +4188,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4203,7 +4200,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4220,11 +4217,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4236,7 +4233,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4269,7 +4266,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4286,11 +4283,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4302,7 +4299,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4335,7 +4332,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4356,7 +4353,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4368,7 +4365,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4385,11 +4382,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4401,7 +4398,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4418,11 +4415,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>50</v>
@@ -4434,7 +4431,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4455,7 +4452,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4467,7 +4464,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4500,7 +4497,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4517,11 +4514,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4533,7 +4530,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4554,7 +4551,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4566,7 +4563,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4587,7 +4584,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4599,7 +4596,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4616,11 +4613,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4632,7 +4629,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4649,11 +4646,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4665,14 +4662,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4682,11 +4679,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4698,7 +4695,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4715,11 +4712,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4731,14 +4728,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4748,7 +4745,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4764,14 +4761,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4781,11 +4778,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4797,7 +4794,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4814,11 +4811,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4830,7 +4827,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4847,11 +4844,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4863,7 +4860,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4880,11 +4877,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4896,7 +4893,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4917,7 +4914,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4929,7 +4926,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4946,11 +4943,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4962,7 +4959,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4979,11 +4976,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>58</v>
@@ -4995,14 +4992,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5012,14 +5009,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5028,14 +5025,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5045,14 +5042,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5061,14 +5058,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5078,14 +5075,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5094,14 +5091,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5111,14 +5108,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5127,14 +5124,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5144,14 +5141,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5160,14 +5157,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5177,14 +5174,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5193,14 +5190,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5210,14 +5207,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5226,14 +5223,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5243,11 +5240,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>68</v>
@@ -5259,14 +5256,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5276,14 +5273,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5292,14 +5289,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5309,14 +5306,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5325,14 +5322,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5342,11 +5339,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5358,31 +5355,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5391,14 +5388,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5408,11 +5405,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5424,14 +5421,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5445,7 +5442,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5457,14 +5454,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5474,11 +5471,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>335</v>
+        <v>163</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5490,14 +5487,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5507,11 +5504,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5523,14 +5520,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>202</v>
+        <v>338</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5540,11 +5537,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5556,14 +5553,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5589,14 +5586,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5606,14 +5603,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>347</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5622,7 +5619,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5639,14 +5636,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>350</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>202</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5655,14 +5652,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5672,14 +5669,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5688,14 +5685,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5705,11 +5702,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5721,14 +5718,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5738,11 +5735,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5754,14 +5751,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5771,11 +5768,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>84</v>
+        <v>357</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>85</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5787,14 +5784,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5804,11 +5801,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5820,14 +5817,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5837,11 +5834,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5853,7 +5850,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5870,11 +5867,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5886,14 +5883,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5919,14 +5916,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5936,11 +5933,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>163</v>
+        <v>339</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5952,14 +5949,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5973,7 +5970,7 @@
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5985,14 +5982,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6002,11 +5999,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6018,14 +6015,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6035,14 +6032,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6051,14 +6048,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6068,14 +6065,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6084,14 +6081,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6101,14 +6098,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6117,14 +6114,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6134,14 +6131,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6150,14 +6147,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6167,14 +6164,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6183,7 +6180,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6200,11 +6197,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6216,14 +6213,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6233,49 +6230,82 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>381</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>16</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>56</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>335</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
         <v>336</v>
       </c>
-      <c t="s" r="Q141" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>7906.8050000000003</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>7956.3050000000003</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>382</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
         <v>383</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
         <v>384</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>385</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6959,10 +6989,15 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -470,6 +470,9 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -533,6 +536,15 @@
     <t>167.7600</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -740,6 +752,12 @@
     <t>220.0000</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -767,6 +785,15 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -866,12 +893,6 @@
     <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -1157,7 +1178,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 10:40 PM</t>
+    <t>Sunday, 24 August, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3250,7 +3271,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3392,11 +3413,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3425,11 +3446,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3441,31 +3462,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3474,31 +3495,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3524,14 +3545,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3557,14 +3578,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3623,14 +3644,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3656,11 +3677,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3679,7 +3700,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3689,14 +3710,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3722,14 +3743,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3738,14 +3759,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3755,11 +3776,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3788,14 +3809,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3804,14 +3825,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3821,14 +3842,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3854,14 +3875,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3887,14 +3908,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3903,7 +3924,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3920,7 +3941,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3953,14 +3974,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3969,7 +3990,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3986,14 +4007,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4002,14 +4023,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4019,14 +4040,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4052,11 +4073,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4085,14 +4106,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4108,21 +4129,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4134,14 +4155,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4151,14 +4172,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4167,28 +4188,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4200,14 +4221,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4217,14 +4238,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4233,14 +4254,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4250,11 +4271,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4273,7 +4294,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4290,7 +4311,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4306,7 +4327,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4316,14 +4337,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4339,7 +4360,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4349,14 +4370,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4365,14 +4386,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4382,14 +4403,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4398,14 +4419,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4415,14 +4436,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4431,14 +4452,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4448,14 +4469,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4464,14 +4485,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4481,11 +4502,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4504,7 +4525,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4521,7 +4542,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4537,24 +4558,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4570,7 +4591,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4580,14 +4601,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4596,14 +4617,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4613,14 +4634,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4629,7 +4650,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4646,11 +4667,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4662,31 +4683,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4695,14 +4716,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4712,11 +4733,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4728,14 +4749,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4745,14 +4766,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4761,14 +4782,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4778,11 +4799,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4794,14 +4815,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4811,11 +4832,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4827,14 +4848,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4844,11 +4865,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4860,14 +4881,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4877,14 +4898,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4893,14 +4914,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4910,14 +4931,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4926,14 +4947,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4943,14 +4964,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4959,14 +4980,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4976,14 +4997,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4992,14 +5013,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5009,14 +5030,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5025,14 +5046,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5042,11 +5063,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5058,14 +5079,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5075,14 +5096,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5091,14 +5112,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5108,14 +5129,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5131,7 +5152,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5141,11 +5162,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>198</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5157,14 +5178,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5174,11 +5195,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5190,14 +5211,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5207,14 +5228,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>23</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5223,14 +5244,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5240,14 +5261,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5256,14 +5277,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5273,14 +5294,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5289,14 +5310,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5306,14 +5327,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5322,14 +5343,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5339,14 +5360,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5355,14 +5376,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>324</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5372,14 +5393,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5388,31 +5409,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5421,31 +5442,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5454,31 +5475,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>163</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5487,31 +5508,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5520,14 +5541,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5537,11 +5558,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5553,14 +5574,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>202</v>
+        <v>337</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5570,11 +5591,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>342</v>
+        <v>164</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5586,14 +5607,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5603,11 +5624,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>342</v>
+        <v>164</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5619,14 +5640,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5636,14 +5657,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>346</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5652,14 +5673,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5669,14 +5690,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5685,14 +5706,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>351</v>
+        <v>206</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5702,11 +5723,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5718,14 +5739,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5735,11 +5756,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5751,14 +5772,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5768,14 +5789,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5784,14 +5805,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5801,14 +5822,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>84</v>
+        <v>355</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5817,14 +5838,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5834,11 +5855,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5850,14 +5871,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>68</v>
+        <v>360</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5867,11 +5888,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5890,7 +5911,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5900,11 +5921,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5916,14 +5937,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5933,11 +5954,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5949,14 +5970,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>366</v>
+        <v>29</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5966,11 +5987,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5982,14 +6003,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5999,11 +6020,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6015,14 +6036,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6032,11 +6053,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6048,14 +6069,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6065,14 +6086,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6081,14 +6102,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6098,14 +6119,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6121,7 +6142,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6131,11 +6152,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>375</v>
+        <v>164</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6147,7 +6168,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6164,14 +6185,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6180,14 +6201,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6197,14 +6218,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6213,14 +6234,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6230,14 +6251,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6253,7 +6274,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6263,49 +6284,181 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
-      <c r="P143" s="13">
-        <v>7956.3050000000003</v>
-      </c>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c t="s" r="A144" s="14">
-        <v>382</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c t="s" r="G144" s="15">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
         <v>383</v>
       </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c t="s" r="K144" s="17">
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>29</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>56</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
         <v>384</v>
       </c>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>385</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>386</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>83</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>56</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>364</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>365</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>387</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>83</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>56</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>276</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>368</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>388</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>16</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>56</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>342</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>8296.3050000000003</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
+        <v>389</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>390</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>391</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="692">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6994,10 +7147,30 @@
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
     <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>BILASTIGEC 20 MG 20 TABS.</t>
   </si>
   <si>
@@ -782,6 +791,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
@@ -1037,12 +1055,6 @@
     <t>85:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -1070,9 +1082,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1088,6 +1097,18 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -1178,7 +1199,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 11:00 PM</t>
+    <t>Sunday, 24 August, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2380,7 +2401,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2390,14 +2411,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2446,24 +2467,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2489,14 +2510,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2505,20 +2526,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2545,7 +2566,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2562,7 +2583,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2578,7 +2599,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2621,14 +2642,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2644,7 +2665,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2677,7 +2698,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2694,7 +2715,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2710,7 +2731,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2743,7 +2764,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2826,7 +2847,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2885,7 +2906,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2908,7 +2929,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2925,7 +2946,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2941,7 +2962,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3040,7 +3061,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3057,7 +3078,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3090,7 +3111,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3123,7 +3144,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3145,7 +3166,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3156,7 +3177,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3172,21 +3193,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3238,7 +3259,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3255,7 +3276,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3271,7 +3292,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3354,7 +3375,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3370,7 +3391,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3436,7 +3457,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3469,7 +3490,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3502,13 +3523,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3519,7 +3540,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3541,7 +3562,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3552,7 +3573,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3568,7 +3589,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3578,14 +3599,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3644,14 +3665,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>189</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3667,7 +3688,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3684,7 +3705,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3700,7 +3721,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3776,11 +3797,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3813,10 +3834,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3842,14 +3863,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3865,7 +3886,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3875,11 +3896,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3915,7 +3936,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3931,7 +3952,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3941,11 +3962,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3957,14 +3978,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3974,14 +3995,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3990,14 +4011,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4007,14 +4028,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4030,7 +4051,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4047,7 +4068,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4063,7 +4084,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4073,14 +4094,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4089,14 +4110,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4122,14 +4143,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4139,14 +4160,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4172,11 +4193,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4195,13 +4216,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4228,13 +4249,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4245,7 +4266,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4261,7 +4282,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4271,14 +4292,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4287,14 +4308,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4304,7 +4325,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4337,11 +4358,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4353,14 +4374,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4370,14 +4391,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4393,7 +4414,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4403,14 +4424,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4419,14 +4440,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4436,14 +4457,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4452,14 +4473,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4469,14 +4490,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4485,14 +4506,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4502,14 +4523,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4525,7 +4546,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4542,7 +4563,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4558,7 +4579,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4568,14 +4589,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4584,14 +4605,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4601,11 +4622,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4617,14 +4638,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4634,11 +4655,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4650,14 +4671,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4667,11 +4688,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4690,21 +4711,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4716,7 +4737,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4733,14 +4754,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4749,31 +4770,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4782,7 +4803,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4799,14 +4820,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4822,7 +4843,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4832,11 +4853,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4848,14 +4869,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4865,14 +4886,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4881,14 +4902,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4898,14 +4919,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4921,7 +4942,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4938,7 +4959,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4954,7 +4975,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4964,14 +4985,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4987,7 +5008,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5004,7 +5025,7 @@
         <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5030,14 +5051,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5046,14 +5067,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5063,11 +5084,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5079,14 +5100,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5096,11 +5117,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5112,7 +5133,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5129,14 +5150,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5162,14 +5183,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5178,14 +5199,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5195,14 +5216,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5211,14 +5232,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5228,11 +5249,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5244,14 +5265,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5261,14 +5282,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5277,7 +5298,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5294,11 +5315,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5310,14 +5331,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5327,14 +5348,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5350,7 +5371,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5367,7 +5388,7 @@
         <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5383,7 +5404,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5393,14 +5414,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5416,7 +5437,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5426,14 +5447,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5442,14 +5463,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5459,14 +5480,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5482,7 +5503,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5492,14 +5513,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5508,14 +5529,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5525,14 +5546,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>85</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5554,7 +5575,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5565,7 +5586,7 @@
         <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5587,18 +5608,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>164</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5607,14 +5628,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>339</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5624,11 +5645,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>164</v>
+        <v>340</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5640,14 +5661,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5657,11 +5678,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5690,11 +5711,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5706,14 +5727,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5723,11 +5744,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5739,14 +5760,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5756,11 +5777,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5779,7 +5800,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5789,14 +5810,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>138</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>353</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5805,14 +5826,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5822,14 +5843,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5838,14 +5859,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5855,14 +5876,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>164</v>
+        <v>329</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5871,14 +5892,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5888,14 +5909,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5904,14 +5925,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5921,11 +5942,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5937,14 +5958,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>63</v>
+        <v>363</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5954,11 +5975,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>84</v>
+        <v>364</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>85</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5970,14 +5991,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5987,11 +6008,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6003,14 +6024,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6020,11 +6041,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>276</v>
+        <v>371</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6036,14 +6057,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6053,11 +6074,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6069,7 +6090,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6086,11 +6107,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6102,14 +6123,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>373</v>
+        <v>68</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6119,11 +6140,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6135,14 +6156,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6152,11 +6173,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6168,7 +6189,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6185,11 +6206,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6201,14 +6222,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6218,14 +6239,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6234,14 +6255,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6251,14 +6272,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6267,14 +6288,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6284,11 +6305,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6307,7 +6328,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6317,11 +6338,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>33</v>
@@ -6333,14 +6354,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6350,14 +6371,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>364</v>
+        <v>187</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6366,14 +6387,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6383,11 +6404,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>276</v>
+        <v>389</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6399,14 +6420,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6416,49 +6437,148 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
-      <c r="P147" s="13">
-        <v>8296.3050000000003</v>
-      </c>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
-        <v>389</v>
-      </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
-        <v>390</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
-        <v>391</v>
-      </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>393</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>86</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>56</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>371</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>372</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>394</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>86</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>56</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>282</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>375</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>395</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>16</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>56</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>261</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>8387.3050000000003</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>396</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>397</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>398</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7167,10 +7287,25 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -290,6 +299,15 @@
     <t>23.0400</t>
   </si>
   <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -398,15 +416,12 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -461,6 +476,15 @@
     <t>5:3</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -539,18 +563,12 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>167.7600</t>
   </si>
   <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
-    <t>160.00</t>
-  </si>
-  <si>
     <t>160.0000</t>
   </si>
   <si>
@@ -599,6 +617,9 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -812,6 +833,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -923,7 +950,7 @@
     <t>261.00</t>
   </si>
   <si>
-    <t>261.0000</t>
+    <t>347.1300</t>
   </si>
   <si>
     <t>TRI-B I.M. 3 DOUBLE AMP.</t>
@@ -977,10 +1004,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>84.6600</t>
+    <t>118.3200</t>
   </si>
   <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
@@ -1073,15 +1103,15 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>ريكسونه رجالى</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>19:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1151,9 +1181,6 @@
     <t>قطن ازن كبير</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1193,13 +1220,25 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 11:03 PM</t>
+    <t>Sunday, 24 August, 2025 11:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1939,7 +1978,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1949,14 +1988,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1965,14 +2004,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2055,7 +2094,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2071,7 +2110,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2104,7 +2143,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2121,7 +2160,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2130,14 +2169,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2147,14 +2186,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2163,14 +2202,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2180,14 +2219,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2203,24 +2242,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2229,31 +2268,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2269,7 +2308,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2279,11 +2318,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2295,14 +2334,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2312,11 +2351,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2335,7 +2374,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2345,14 +2384,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2361,14 +2400,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2378,14 +2417,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2394,14 +2433,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2418,7 +2457,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2434,7 +2473,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2444,14 +2483,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2460,14 +2499,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2500,24 +2539,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2526,31 +2565,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2559,20 +2598,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2599,7 +2638,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2616,7 +2655,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2632,7 +2671,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2642,11 +2681,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2658,14 +2697,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2675,11 +2714,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2691,14 +2730,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2708,14 +2747,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2731,7 +2770,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2748,7 +2787,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2764,7 +2803,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2781,7 +2820,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2797,7 +2836,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2807,14 +2846,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2823,14 +2862,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2840,11 +2879,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2856,14 +2895,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2873,14 +2912,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2889,14 +2928,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2906,7 +2945,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2929,7 +2968,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2946,7 +2985,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2955,14 +2994,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2972,14 +3011,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2995,7 +3034,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3005,14 +3044,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3021,14 +3060,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3038,14 +3077,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3054,14 +3093,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3071,14 +3110,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3087,14 +3126,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3104,11 +3143,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -3120,14 +3159,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3137,11 +3176,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3153,7 +3192,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3170,14 +3209,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3186,7 +3225,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3199,18 +3238,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3219,14 +3258,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3236,14 +3275,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3259,13 +3298,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3276,7 +3315,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3292,7 +3331,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3302,11 +3341,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3318,14 +3357,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3335,11 +3374,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3351,14 +3390,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3375,7 +3414,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3391,7 +3430,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3424,7 +3463,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3434,14 +3473,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3450,14 +3489,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3474,7 +3513,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3490,7 +3529,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3523,7 +3562,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3533,14 +3572,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3549,31 +3588,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3582,14 +3621,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3599,14 +3638,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3615,14 +3654,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3632,14 +3671,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3648,31 +3687,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3681,14 +3720,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3698,14 +3737,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3714,14 +3753,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3731,14 +3770,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3747,14 +3786,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3764,14 +3803,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3780,14 +3819,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3797,14 +3836,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3813,14 +3852,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3830,11 +3869,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3846,14 +3885,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3863,11 +3902,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3879,14 +3918,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3896,14 +3935,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3912,14 +3951,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3929,11 +3968,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3945,14 +3984,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3962,14 +4001,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3978,14 +4017,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3995,11 +4034,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -4011,7 +4050,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4028,11 +4067,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4044,14 +4083,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4061,14 +4100,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4077,14 +4116,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4094,14 +4133,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4110,7 +4149,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4127,14 +4166,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4143,14 +4182,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4160,14 +4199,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4176,7 +4215,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4193,14 +4232,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4209,14 +4248,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4226,14 +4265,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4242,28 +4281,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4275,14 +4314,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4292,14 +4331,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4308,14 +4347,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4325,11 +4364,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4341,14 +4380,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4358,11 +4397,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4374,7 +4413,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4387,15 +4426,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4407,14 +4446,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4424,11 +4463,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4440,14 +4479,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4457,14 +4496,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4473,7 +4512,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4490,14 +4529,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4513,7 +4552,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4523,11 +4562,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4539,14 +4578,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4556,11 +4595,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4572,14 +4611,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4589,14 +4628,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4605,14 +4644,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4622,14 +4661,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4638,14 +4677,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4655,11 +4694,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4671,14 +4710,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4688,11 +4727,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4704,14 +4743,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4721,14 +4760,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4737,14 +4776,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4754,11 +4793,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4770,28 +4809,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4803,14 +4842,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4820,14 +4859,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4836,14 +4875,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4853,14 +4892,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4869,28 +4908,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4902,14 +4941,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4919,11 +4958,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4935,7 +4974,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4948,15 +4987,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4968,14 +5007,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4985,14 +5024,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5001,14 +5040,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5018,11 +5057,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -5034,7 +5073,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -5051,11 +5090,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -5067,14 +5106,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5084,14 +5123,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5100,14 +5139,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5117,11 +5156,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5133,14 +5172,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5150,14 +5189,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5166,14 +5205,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5183,14 +5222,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5199,14 +5238,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5216,14 +5255,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5232,14 +5271,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5249,14 +5288,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5265,14 +5304,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5282,11 +5321,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5298,14 +5337,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5315,14 +5354,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5331,14 +5370,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5348,14 +5387,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5364,14 +5403,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5381,14 +5420,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5397,14 +5436,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5414,14 +5453,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5430,14 +5469,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5447,14 +5486,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5463,14 +5502,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5480,14 +5519,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5496,14 +5535,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5513,14 +5552,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5529,14 +5568,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5546,14 +5585,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5562,14 +5601,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5579,14 +5618,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>334</v>
+        <v>220</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5595,14 +5634,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5612,14 +5651,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5628,31 +5667,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5661,31 +5700,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5694,31 +5733,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5727,31 +5766,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5760,31 +5799,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5793,28 +5832,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5826,28 +5865,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>353</v>
+        <v>175</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5859,31 +5898,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5892,31 +5931,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>359</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5925,28 +5964,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5965,21 +6004,21 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>363</v>
+        <v>216</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5991,28 +6030,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>369</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6024,31 +6063,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>372</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6057,31 +6096,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6090,28 +6129,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6123,24 +6162,24 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>68</v>
+        <v>373</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
@@ -6156,28 +6195,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6189,28 +6228,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6222,28 +6261,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>380</v>
+        <v>66</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6255,28 +6294,28 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6288,28 +6327,28 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6321,31 +6360,31 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6354,31 +6393,31 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>386</v>
+        <v>33</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6387,28 +6426,28 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>389</v>
+        <v>175</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6427,24 +6466,24 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -6453,28 +6492,28 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6486,31 +6525,31 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c t="s" r="L148" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c t="s" r="Q148" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
@@ -6519,66 +6558,297 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>16</v>
+        <v>395</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c t="s" r="L149" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
-      <c r="P150" s="13">
-        <v>8387.3050000000003</v>
-      </c>
-      <c r="Q150" s="13"/>
-    </row>
-    <row r="151" ht="16.5" customHeight="1">
-      <c t="s" r="A151" s="14">
-        <v>396</v>
-      </c>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c t="s" r="G151" s="15">
+      <c r="A150" s="7">
+        <v>144</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c t="s" r="C150" s="8">
         <v>397</v>
       </c>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="16"/>
-      <c t="s" r="K151" s="17">
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>320</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c t="s" r="L150" s="10">
+        <v>59</v>
+      </c>
+      <c r="M150" s="10"/>
+      <c t="s" r="N150" s="8">
         <v>398</v>
       </c>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
-      <c r="Q151" s="17"/>
+      <c r="O150" s="8"/>
+      <c t="s" r="P150" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q150" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="A151" s="7">
+        <v>145</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c t="s" r="C151" s="8">
+        <v>399</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c t="s" r="H151" s="9">
+        <v>33</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c t="s" r="L151" s="10">
+        <v>59</v>
+      </c>
+      <c r="M151" s="10"/>
+      <c t="s" r="N151" s="8">
+        <v>400</v>
+      </c>
+      <c r="O151" s="8"/>
+      <c t="s" r="P151" s="11">
+        <v>401</v>
+      </c>
+      <c t="s" r="Q151" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="A152" s="7">
+        <v>146</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c t="s" r="C152" s="8">
+        <v>402</v>
+      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c t="s" r="H152" s="9">
+        <v>89</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c t="s" r="L152" s="10">
+        <v>59</v>
+      </c>
+      <c r="M152" s="10"/>
+      <c t="s" r="N152" s="8">
+        <v>381</v>
+      </c>
+      <c r="O152" s="8"/>
+      <c t="s" r="P152" s="11">
+        <v>382</v>
+      </c>
+      <c t="s" r="Q152" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" ht="24.75" customHeight="1">
+      <c r="A153" s="7">
+        <v>147</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c t="s" r="C153" s="8">
+        <v>403</v>
+      </c>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c t="s" r="H153" s="9">
+        <v>359</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c t="s" r="L153" s="10">
+        <v>59</v>
+      </c>
+      <c r="M153" s="10"/>
+      <c t="s" r="N153" s="8">
+        <v>268</v>
+      </c>
+      <c r="O153" s="8"/>
+      <c t="s" r="P153" s="11">
+        <v>393</v>
+      </c>
+      <c t="s" r="Q153" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" ht="25.5" customHeight="1">
+      <c r="A154" s="7">
+        <v>148</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c t="s" r="C154" s="8">
+        <v>404</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c t="s" r="H154" s="9">
+        <v>405</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c t="s" r="L154" s="10">
+        <v>59</v>
+      </c>
+      <c r="M154" s="10"/>
+      <c t="s" r="N154" s="8">
+        <v>400</v>
+      </c>
+      <c r="O154" s="8"/>
+      <c t="s" r="P154" s="11">
+        <v>406</v>
+      </c>
+      <c t="s" r="Q154" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" ht="24.75" customHeight="1">
+      <c r="A155" s="7">
+        <v>149</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c t="s" r="C155" s="8">
+        <v>407</v>
+      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c t="s" r="H155" s="9">
+        <v>89</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c t="s" r="L155" s="10">
+        <v>59</v>
+      </c>
+      <c r="M155" s="10"/>
+      <c t="s" r="N155" s="8">
+        <v>291</v>
+      </c>
+      <c r="O155" s="8"/>
+      <c t="s" r="P155" s="11">
+        <v>385</v>
+      </c>
+      <c t="s" r="Q155" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" ht="25.5" customHeight="1">
+      <c r="A156" s="7">
+        <v>150</v>
+      </c>
+      <c r="B156" s="7"/>
+      <c t="s" r="C156" s="8">
+        <v>408</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c t="s" r="H156" s="9">
+        <v>16</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c t="s" r="L156" s="10">
+        <v>59</v>
+      </c>
+      <c r="M156" s="10"/>
+      <c t="s" r="N156" s="8">
+        <v>268</v>
+      </c>
+      <c r="O156" s="8"/>
+      <c t="s" r="P156" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q156" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1">
+      <c r="P157" s="13">
+        <v>8856.0949999999993</v>
+      </c>
+      <c r="Q157" s="13"/>
+    </row>
+    <row r="158" ht="16.5" customHeight="1">
+      <c t="s" r="A158" s="14">
+        <v>409</v>
+      </c>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c t="s" r="G158" s="15">
+        <v>410</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c t="s" r="K158" s="17">
+        <v>411</v>
+      </c>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="727">
+  <mergeCells count="762">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7302,10 +7572,45 @@
     <mergeCell ref="H149:K149"/>
     <mergeCell ref="L149:M149"/>
     <mergeCell ref="N149:O149"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="K151:Q151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="K158:Q158"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-24_00-00.xlsx
+++ b/DaySale_2025-08-24_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -140,6 +149,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ALVEOLIN-P SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>AMARYL 2 MG 30 TABS</t>
   </si>
   <si>
@@ -206,6 +224,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -224,501 +251,507 @@
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BILASTIGEC 20 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>BILASTOMED 20 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
+    <t>BINO BABY CREAM</t>
+  </si>
+  <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>46.0800</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>49.00</t>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONISTOVA 2 MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DAKTARIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DEETRIO 30TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EKMASONID 9 MG 10 E.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>167.7600</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
     <t>49.0000</t>
   </si>
   <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>BILASTIGEC 20 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>BILASTOMED 20 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>33.1650</t>
-  </si>
-  <si>
-    <t>BINO BABY CREAM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>BIOLEGAM60/100 TAB</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 2 GM VIAL</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>CONISTOVA 2 MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DAKTARIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DEETRIO 30TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EKMASONID 9 MG 10 E.R.F.C.TABS.</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>167.7600</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>4:10</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:6</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>19.6800</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>184.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 5 CAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -836,9 +869,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -947,9 +977,6 @@
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
-    <t>261.00</t>
-  </si>
-  <si>
     <t>347.1300</t>
   </si>
   <si>
@@ -1157,7 +1184,13 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -1238,7 +1271,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Sunday, 24 August, 2025 11:10 PM</t>
+    <t>Sunday, 24 August, 2025 11:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,7 +2044,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2044,7 +2077,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2054,11 +2087,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -2070,14 +2103,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2087,11 +2120,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -2103,14 +2136,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2127,7 +2160,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2176,7 +2209,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2193,7 +2226,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2202,14 +2235,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2219,14 +2252,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2235,14 +2268,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2252,14 +2285,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2268,31 +2301,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2301,14 +2334,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2318,14 +2351,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2334,31 +2367,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2367,14 +2400,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2384,11 +2417,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2400,14 +2433,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2424,7 +2457,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2450,14 +2483,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2466,14 +2499,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2483,14 +2516,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2516,14 +2549,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2532,14 +2565,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2549,14 +2582,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2565,28 +2598,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2598,28 +2631,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2631,14 +2664,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2648,11 +2681,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2664,31 +2697,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2697,31 +2730,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2730,7 +2763,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2747,11 +2780,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2780,14 +2813,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2813,11 +2846,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2829,14 +2862,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2846,11 +2879,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2862,14 +2895,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2879,14 +2912,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2895,14 +2928,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2912,11 +2945,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2928,14 +2961,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2945,11 +2978,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2961,14 +2994,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2978,14 +3011,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2994,14 +3027,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -3011,14 +3044,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3027,14 +3060,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3044,11 +3077,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -3060,14 +3093,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3077,14 +3110,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3110,14 +3143,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3126,14 +3159,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3143,11 +3176,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -3159,14 +3192,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3176,14 +3209,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3192,14 +3225,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3209,14 +3242,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3225,14 +3258,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3242,14 +3275,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3275,14 +3308,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3291,31 +3324,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3341,11 +3374,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3357,14 +3390,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3374,14 +3407,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3390,14 +3423,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3407,14 +3440,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3423,28 +3456,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3456,14 +3489,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3473,11 +3506,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3489,14 +3522,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3506,14 +3539,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3522,14 +3555,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3539,14 +3572,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3555,14 +3588,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3605,11 +3638,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3621,14 +3654,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3638,14 +3671,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3671,11 +3704,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3687,31 +3720,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3720,14 +3753,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3737,14 +3770,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3770,14 +3803,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3786,14 +3819,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3803,14 +3836,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3819,31 +3852,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3852,14 +3885,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3869,11 +3902,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3902,14 +3935,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3918,14 +3951,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3935,14 +3968,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3951,14 +3984,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3968,14 +4001,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -4008,7 +4041,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -4024,7 +4057,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4038,10 +4071,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4050,7 +4083,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4083,14 +4116,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4100,14 +4133,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4116,14 +4149,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4133,14 +4166,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4149,14 +4182,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4166,14 +4199,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4182,14 +4215,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4199,14 +4232,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4215,14 +4248,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4232,14 +4265,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4248,14 +4281,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4265,14 +4298,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4281,14 +4314,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4298,14 +4331,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4314,14 +4347,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4331,14 +4364,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4347,14 +4380,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4364,11 +4397,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4380,14 +4413,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4397,14 +4430,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4413,7 +4446,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4426,18 +4459,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4446,14 +4479,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4463,14 +4496,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4479,14 +4512,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4496,14 +4529,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4512,14 +4545,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4529,11 +4562,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4545,14 +4578,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4562,11 +4595,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4578,31 +4611,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4611,14 +4644,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4628,14 +4661,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4644,14 +4677,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4661,14 +4694,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4677,14 +4710,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4694,11 +4727,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4710,14 +4743,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4727,14 +4760,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4750,7 +4783,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4767,7 +4800,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4783,7 +4816,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4793,14 +4826,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4809,14 +4842,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4826,14 +4859,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4842,14 +4875,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4859,14 +4892,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4875,14 +4908,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4892,14 +4925,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4908,31 +4941,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4948,7 +4981,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4958,11 +4991,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4974,24 +5007,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -5014,7 +5047,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5024,14 +5057,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5040,14 +5073,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5057,14 +5090,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5073,28 +5106,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -5106,14 +5139,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5123,11 +5156,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -5139,7 +5172,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5152,15 +5185,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5172,14 +5205,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5189,14 +5222,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5205,14 +5238,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5222,11 +5255,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5238,7 +5271,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5255,11 +5288,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5271,14 +5304,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5288,14 +5321,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5304,14 +5337,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5321,11 +5354,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5337,14 +5370,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5354,14 +5387,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5370,14 +5403,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5387,14 +5420,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5403,14 +5436,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5420,14 +5453,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5436,14 +5469,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5453,14 +5486,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5469,14 +5502,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5486,11 +5519,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5502,14 +5535,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5519,14 +5552,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5535,14 +5568,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5552,14 +5585,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>72</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5568,14 +5601,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5585,14 +5618,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5601,14 +5634,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5618,14 +5651,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5634,14 +5667,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5651,14 +5684,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5667,14 +5700,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5684,14 +5717,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5700,14 +5733,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5717,14 +5750,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5733,14 +5766,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5750,14 +5783,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5766,14 +5799,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5783,14 +5816,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5799,14 +5832,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5816,14 +5849,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5832,31 +5865,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5865,31 +5898,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5898,31 +5931,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>355</v>
+        <v>36</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5931,31 +5964,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5964,31 +5997,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>361</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5997,28 +6030,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -6030,28 +6063,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6063,31 +6096,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>339</v>
+        <v>183</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>366</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6096,31 +6129,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>369</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6129,28 +6162,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>175</v>
+        <v>369</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6162,28 +6195,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>373</v>
+        <v>227</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6195,28 +6228,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>379</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6228,31 +6261,31 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>382</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6261,31 +6294,31 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>90</v>
+        <v>377</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>91</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6294,28 +6327,28 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>33</v>
+        <v>380</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6327,28 +6360,28 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>71</v>
+        <v>382</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6360,28 +6393,28 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>71</v>
+        <v>386</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6393,28 +6426,28 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6426,28 +6459,28 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>292</v>
+        <v>393</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6459,28 +6492,28 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>292</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
@@ -6492,28 +6525,28 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6525,31 +6558,31 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c t="s" r="L148" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c t="s" r="Q148" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
@@ -6558,31 +6591,31 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>395</v>
+        <v>108</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c t="s" r="L149" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
@@ -6591,28 +6624,28 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c t="s" r="L150" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q150" s="12">
         <v>16</v>
@@ -6624,31 +6657,31 @@
       </c>
       <c r="B151" s="7"/>
       <c t="s" r="C151" s="8">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c t="s" r="H151" s="9">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c t="s" r="L151" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>400</v>
+        <v>183</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q151" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" ht="25.5" customHeight="1">
@@ -6657,28 +6690,28 @@
       </c>
       <c r="B152" s="7"/>
       <c t="s" r="C152" s="8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c t="s" r="L152" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>381</v>
+        <v>183</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>382</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q152" s="12">
         <v>16</v>
@@ -6690,31 +6723,31 @@
       </c>
       <c r="B153" s="7"/>
       <c t="s" r="C153" s="8">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c t="s" r="H153" s="9">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c t="s" r="L153" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M153" s="10"/>
       <c t="s" r="N153" s="8">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153" s="11">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q153" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" ht="25.5" customHeight="1">
@@ -6723,31 +6756,31 @@
       </c>
       <c r="B154" s="7"/>
       <c t="s" r="C154" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c t="s" r="H154" s="9">
-        <v>405</v>
+        <v>12</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c t="s" r="L154" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M154" s="10"/>
       <c t="s" r="N154" s="8">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="O154" s="8"/>
       <c t="s" r="P154" s="11">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c t="s" r="Q154" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" ht="24.75" customHeight="1">
@@ -6756,31 +6789,31 @@
       </c>
       <c r="B155" s="7"/>
       <c t="s" r="C155" s="8">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c t="s" r="H155" s="9">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c t="s" r="L155" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M155" s="10"/>
       <c t="s" r="N155" s="8">
-        <v>291</v>
+        <v>201</v>
       </c>
       <c r="O155" s="8"/>
       <c t="s" r="P155" s="11">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c t="s" r="Q155" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" ht="25.5" customHeight="1">
@@ -6796,59 +6829,257 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c t="s" r="H156" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c t="s" r="L156" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M156" s="10"/>
       <c t="s" r="N156" s="8">
-        <v>268</v>
+        <v>409</v>
       </c>
       <c r="O156" s="8"/>
       <c t="s" r="P156" s="11">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q156" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="157" ht="25.5" customHeight="1">
-      <c r="P157" s="13">
-        <v>8856.0949999999993</v>
-      </c>
-      <c r="Q157" s="13"/>
-    </row>
-    <row r="158" ht="16.5" customHeight="1">
-      <c t="s" r="A158" s="14">
-        <v>409</v>
-      </c>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c t="s" r="G158" s="15">
+      <c r="A157" s="7">
+        <v>151</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c t="s" r="C157" s="8">
         <v>410</v>
       </c>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="16"/>
-      <c t="s" r="K158" s="17">
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c t="s" r="H157" s="9">
+        <v>36</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c t="s" r="L157" s="10">
+        <v>65</v>
+      </c>
+      <c r="M157" s="10"/>
+      <c t="s" r="N157" s="8">
         <v>411</v>
       </c>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="17"/>
-      <c r="Q158" s="17"/>
+      <c r="O157" s="8"/>
+      <c t="s" r="P157" s="11">
+        <v>412</v>
+      </c>
+      <c t="s" r="Q157" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" ht="24.75" customHeight="1">
+      <c r="A158" s="7">
+        <v>152</v>
+      </c>
+      <c r="B158" s="7"/>
+      <c t="s" r="C158" s="8">
+        <v>413</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c t="s" r="H158" s="9">
+        <v>80</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c t="s" r="L158" s="10">
+        <v>65</v>
+      </c>
+      <c r="M158" s="10"/>
+      <c t="s" r="N158" s="8">
+        <v>390</v>
+      </c>
+      <c r="O158" s="8"/>
+      <c t="s" r="P158" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q158" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" ht="25.5" customHeight="1">
+      <c r="A159" s="7">
+        <v>153</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c t="s" r="C159" s="8">
+        <v>414</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c t="s" r="H159" s="9">
+        <v>368</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c t="s" r="L159" s="10">
+        <v>65</v>
+      </c>
+      <c r="M159" s="10"/>
+      <c t="s" r="N159" s="8">
+        <v>279</v>
+      </c>
+      <c r="O159" s="8"/>
+      <c t="s" r="P159" s="11">
+        <v>404</v>
+      </c>
+      <c t="s" r="Q159" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" ht="24.75" customHeight="1">
+      <c r="A160" s="7">
+        <v>154</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c t="s" r="C160" s="8">
+        <v>415</v>
+      </c>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c t="s" r="H160" s="9">
+        <v>416</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c t="s" r="L160" s="10">
+        <v>65</v>
+      </c>
+      <c r="M160" s="10"/>
+      <c t="s" r="N160" s="8">
+        <v>411</v>
+      </c>
+      <c r="O160" s="8"/>
+      <c t="s" r="P160" s="11">
+        <v>417</v>
+      </c>
+      <c t="s" r="Q160" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" ht="25.5" customHeight="1">
+      <c r="A161" s="7">
+        <v>155</v>
+      </c>
+      <c r="B161" s="7"/>
+      <c t="s" r="C161" s="8">
+        <v>418</v>
+      </c>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c t="s" r="H161" s="9">
+        <v>80</v>
+      </c>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c t="s" r="L161" s="10">
+        <v>65</v>
+      </c>
+      <c r="M161" s="10"/>
+      <c t="s" r="N161" s="8">
+        <v>301</v>
+      </c>
+      <c r="O161" s="8"/>
+      <c t="s" r="P161" s="11">
+        <v>396</v>
+      </c>
+      <c t="s" r="Q161" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" ht="25.5" customHeight="1">
+      <c r="A162" s="7">
+        <v>156</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c t="s" r="C162" s="8">
+        <v>419</v>
+      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c t="s" r="H162" s="9">
+        <v>16</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c t="s" r="L162" s="10">
+        <v>65</v>
+      </c>
+      <c r="M162" s="10"/>
+      <c t="s" r="N162" s="8">
+        <v>279</v>
+      </c>
+      <c r="O162" s="8"/>
+      <c t="s" r="P162" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q162" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" ht="24.75" customHeight="1">
+      <c r="P163" s="13">
+        <v>9287.2649999999994</v>
+      </c>
+      <c r="Q163" s="13"/>
+    </row>
+    <row r="164" ht="16.5" customHeight="1">
+      <c t="s" r="A164" s="14">
+        <v>420</v>
+      </c>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c t="s" r="G164" s="15">
+        <v>421</v>
+      </c>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c t="s" r="K164" s="17">
+        <v>422</v>
+      </c>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="762">
+  <mergeCells count="792">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7607,10 +7838,40 @@
     <mergeCell ref="H156:K156"/>
     <mergeCell ref="L156:M156"/>
     <mergeCell ref="N156:O156"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="K158:Q158"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:G159"/>
+    <mergeCell ref="H159:K159"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="N159:O159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="H160:K160"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="H161:K161"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="H162:K162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="K164:Q164"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
